--- a/spider/demo/test/back_education_crawler/data/cingta.xlsx
+++ b/spider/demo/test/back_education_crawler/data/cingta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repo\python\spider\demo\test\back_education_crawler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repo\python\spider\demo\test\education_crawler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1913,7 +1913,7 @@
     <t>新疆维吾尔自治区科技厅</t>
   </si>
   <si>
-    <t>http://www.nbedu.gov.cn/index.html</t>
+    <t>http://www.gxst.gov.cn/gxkjt/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2235,7 +2235,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2541,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:XFD202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="36" customHeight="1"/>
@@ -3754,8 +3754,8 @@
       <c r="B110" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="41" t="s">
-        <v>445</v>
+      <c r="C110" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="36" customHeight="1">
@@ -4766,8 +4766,8 @@
       <c r="B202" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C202" s="13" t="s">
-        <v>366</v>
+      <c r="C202" s="41" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="36" customHeight="1">
@@ -5053,40 +5053,40 @@
     <hyperlink ref="C175" r:id="rId173"/>
     <hyperlink ref="C176" r:id="rId174"/>
     <hyperlink ref="C177" r:id="rId175"/>
-    <hyperlink ref="C202" r:id="rId176"/>
-    <hyperlink ref="C203" r:id="rId177"/>
-    <hyperlink ref="C178" r:id="rId178"/>
-    <hyperlink ref="C179" r:id="rId179"/>
-    <hyperlink ref="C180" r:id="rId180"/>
-    <hyperlink ref="C181" r:id="rId181"/>
-    <hyperlink ref="C182" r:id="rId182"/>
-    <hyperlink ref="C183" r:id="rId183"/>
-    <hyperlink ref="C184" r:id="rId184"/>
-    <hyperlink ref="C185" r:id="rId185"/>
-    <hyperlink ref="C186" r:id="rId186"/>
-    <hyperlink ref="C187" r:id="rId187"/>
-    <hyperlink ref="C188" r:id="rId188"/>
-    <hyperlink ref="C189" r:id="rId189"/>
-    <hyperlink ref="C204" r:id="rId190"/>
-    <hyperlink ref="C205" r:id="rId191"/>
-    <hyperlink ref="C190" r:id="rId192"/>
-    <hyperlink ref="C191" r:id="rId193"/>
-    <hyperlink ref="C192" r:id="rId194"/>
-    <hyperlink ref="C193" r:id="rId195"/>
-    <hyperlink ref="C194" r:id="rId196"/>
-    <hyperlink ref="C195" r:id="rId197"/>
-    <hyperlink ref="C196" r:id="rId198"/>
-    <hyperlink ref="C197" r:id="rId199"/>
-    <hyperlink ref="C198" r:id="rId200"/>
-    <hyperlink ref="C206" r:id="rId201"/>
-    <hyperlink ref="C207" r:id="rId202"/>
-    <hyperlink ref="C208" r:id="rId203"/>
-    <hyperlink ref="C209" r:id="rId204"/>
-    <hyperlink ref="C210" r:id="rId205"/>
-    <hyperlink ref="C211" r:id="rId206"/>
-    <hyperlink ref="C119" r:id="rId207"/>
-    <hyperlink ref="C120" r:id="rId208"/>
-    <hyperlink ref="C121" r:id="rId209"/>
+    <hyperlink ref="C203" r:id="rId176"/>
+    <hyperlink ref="C178" r:id="rId177"/>
+    <hyperlink ref="C179" r:id="rId178"/>
+    <hyperlink ref="C180" r:id="rId179"/>
+    <hyperlink ref="C181" r:id="rId180"/>
+    <hyperlink ref="C182" r:id="rId181"/>
+    <hyperlink ref="C183" r:id="rId182"/>
+    <hyperlink ref="C184" r:id="rId183"/>
+    <hyperlink ref="C185" r:id="rId184"/>
+    <hyperlink ref="C186" r:id="rId185"/>
+    <hyperlink ref="C187" r:id="rId186"/>
+    <hyperlink ref="C188" r:id="rId187"/>
+    <hyperlink ref="C189" r:id="rId188"/>
+    <hyperlink ref="C204" r:id="rId189"/>
+    <hyperlink ref="C205" r:id="rId190"/>
+    <hyperlink ref="C190" r:id="rId191"/>
+    <hyperlink ref="C191" r:id="rId192"/>
+    <hyperlink ref="C192" r:id="rId193"/>
+    <hyperlink ref="C193" r:id="rId194"/>
+    <hyperlink ref="C194" r:id="rId195"/>
+    <hyperlink ref="C195" r:id="rId196"/>
+    <hyperlink ref="C196" r:id="rId197"/>
+    <hyperlink ref="C197" r:id="rId198"/>
+    <hyperlink ref="C198" r:id="rId199"/>
+    <hyperlink ref="C206" r:id="rId200"/>
+    <hyperlink ref="C207" r:id="rId201"/>
+    <hyperlink ref="C208" r:id="rId202"/>
+    <hyperlink ref="C209" r:id="rId203"/>
+    <hyperlink ref="C210" r:id="rId204"/>
+    <hyperlink ref="C211" r:id="rId205"/>
+    <hyperlink ref="C119" r:id="rId206"/>
+    <hyperlink ref="C120" r:id="rId207"/>
+    <hyperlink ref="C121" r:id="rId208"/>
+    <hyperlink ref="C202" r:id="rId209"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId210"/>

--- a/spider/demo/test/back_education_crawler/data/cingta.xlsx
+++ b/spider/demo/test/back_education_crawler/data/cingta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repo\python\spider\demo\test\education_crawler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repo\python\spider\demo\test\back_education_crawler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="450">
   <si>
     <t>高等教育相关国家部委网站</t>
     <rPh sb="0" eb="1">
@@ -1914,6 +1914,22 @@
   </si>
   <si>
     <t>http://www.gxst.gov.cn/gxkjt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kxjst.jiangsu.gov.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://std.jiangsu.gov.cn/col/col48967/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jyt.jiangsu.gov.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jyt.jiangsu.gov.cn/col/col58320/index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2114,7 +2130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2192,6 +2208,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2219,23 +2238,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2541,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD202"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="36" customHeight="1"/>
@@ -2553,11 +2573,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -2929,8 +2949,8 @@
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>74</v>
+      <c r="C35" s="42" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
@@ -2940,8 +2960,8 @@
       <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>75</v>
+      <c r="C36" s="43" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
@@ -4183,8 +4203,8 @@
       <c r="B149" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="13" t="s">
-        <v>282</v>
+      <c r="C149" s="42" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="36" customHeight="1">
@@ -4194,8 +4214,8 @@
       <c r="B150" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C150" s="13" t="s">
-        <v>283</v>
+      <c r="C150" s="42" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="36" customHeight="1">
@@ -4766,7 +4786,7 @@
       <c r="B202" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C202" s="41" t="s">
+      <c r="C202" s="27" t="s">
         <v>445</v>
       </c>
     </row>
@@ -4906,187 +4926,187 @@
     <hyperlink ref="C28" r:id="rId26"/>
     <hyperlink ref="C29" r:id="rId27"/>
     <hyperlink ref="C30" r:id="rId28"/>
-    <hyperlink ref="C35" r:id="rId29"/>
-    <hyperlink ref="C36" r:id="rId30"/>
-    <hyperlink ref="C38" r:id="rId31"/>
-    <hyperlink ref="C39" r:id="rId32"/>
-    <hyperlink ref="C40" r:id="rId33"/>
-    <hyperlink ref="C42" r:id="rId34"/>
-    <hyperlink ref="C44" r:id="rId35"/>
-    <hyperlink ref="C43" r:id="rId36"/>
-    <hyperlink ref="C46" r:id="rId37"/>
-    <hyperlink ref="C45" r:id="rId38"/>
-    <hyperlink ref="C47" r:id="rId39"/>
-    <hyperlink ref="C48" r:id="rId40"/>
-    <hyperlink ref="C49" r:id="rId41"/>
-    <hyperlink ref="C50" r:id="rId42"/>
-    <hyperlink ref="C51" r:id="rId43"/>
-    <hyperlink ref="C52" r:id="rId44"/>
-    <hyperlink ref="C56" r:id="rId45"/>
-    <hyperlink ref="C31" r:id="rId46"/>
-    <hyperlink ref="C32" r:id="rId47"/>
-    <hyperlink ref="C33" r:id="rId48"/>
-    <hyperlink ref="C34" r:id="rId49"/>
-    <hyperlink ref="C37" r:id="rId50"/>
-    <hyperlink ref="C41" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C57" r:id="rId55"/>
-    <hyperlink ref="C58" r:id="rId56"/>
-    <hyperlink ref="C59" r:id="rId57"/>
-    <hyperlink ref="C60" r:id="rId58"/>
-    <hyperlink ref="C61" r:id="rId59"/>
-    <hyperlink ref="C62" r:id="rId60"/>
-    <hyperlink ref="C63" r:id="rId61"/>
-    <hyperlink ref="C64" r:id="rId62"/>
-    <hyperlink ref="C65" r:id="rId63"/>
-    <hyperlink ref="C66" r:id="rId64"/>
-    <hyperlink ref="C67" r:id="rId65"/>
-    <hyperlink ref="C68" r:id="rId66"/>
-    <hyperlink ref="C69" r:id="rId67"/>
-    <hyperlink ref="C70" r:id="rId68"/>
-    <hyperlink ref="C71" r:id="rId69"/>
-    <hyperlink ref="C72" r:id="rId70"/>
-    <hyperlink ref="C73" r:id="rId71"/>
-    <hyperlink ref="C74" r:id="rId72"/>
-    <hyperlink ref="C75" r:id="rId73"/>
-    <hyperlink ref="C76" r:id="rId74"/>
-    <hyperlink ref="C77" r:id="rId75"/>
-    <hyperlink ref="C78" r:id="rId76"/>
-    <hyperlink ref="C79" r:id="rId77"/>
-    <hyperlink ref="C80" r:id="rId78"/>
-    <hyperlink ref="C81" r:id="rId79"/>
-    <hyperlink ref="C82" r:id="rId80"/>
-    <hyperlink ref="C83" r:id="rId81"/>
-    <hyperlink ref="C84" r:id="rId82"/>
-    <hyperlink ref="C85" r:id="rId83"/>
-    <hyperlink ref="C86" r:id="rId84"/>
-    <hyperlink ref="C87" r:id="rId85"/>
-    <hyperlink ref="C88" r:id="rId86"/>
-    <hyperlink ref="C89" r:id="rId87"/>
-    <hyperlink ref="C90" r:id="rId88"/>
-    <hyperlink ref="C91" r:id="rId89"/>
-    <hyperlink ref="C92" r:id="rId90"/>
-    <hyperlink ref="C93" r:id="rId91"/>
-    <hyperlink ref="C94" r:id="rId92"/>
-    <hyperlink ref="C95" r:id="rId93"/>
-    <hyperlink ref="C96" r:id="rId94"/>
-    <hyperlink ref="C97" r:id="rId95"/>
-    <hyperlink ref="C98" r:id="rId96"/>
-    <hyperlink ref="C99" r:id="rId97"/>
-    <hyperlink ref="C100" r:id="rId98"/>
-    <hyperlink ref="C101" r:id="rId99"/>
-    <hyperlink ref="C102" r:id="rId100"/>
-    <hyperlink ref="C103" r:id="rId101"/>
-    <hyperlink ref="C104" r:id="rId102"/>
-    <hyperlink ref="C105" r:id="rId103"/>
-    <hyperlink ref="C106" r:id="rId104"/>
-    <hyperlink ref="C107" r:id="rId105"/>
-    <hyperlink ref="C108" r:id="rId106"/>
-    <hyperlink ref="C109" r:id="rId107"/>
-    <hyperlink ref="C110" r:id="rId108"/>
-    <hyperlink ref="C111" r:id="rId109"/>
-    <hyperlink ref="C112" r:id="rId110"/>
-    <hyperlink ref="C113" r:id="rId111"/>
-    <hyperlink ref="C114" r:id="rId112"/>
-    <hyperlink ref="C115" r:id="rId113"/>
-    <hyperlink ref="C116" r:id="rId114"/>
-    <hyperlink ref="C117" r:id="rId115"/>
-    <hyperlink ref="C118" r:id="rId116"/>
-    <hyperlink ref="C151" r:id="rId117"/>
-    <hyperlink ref="C152" r:id="rId118"/>
-    <hyperlink ref="C153" r:id="rId119"/>
-    <hyperlink ref="C122" r:id="rId120"/>
-    <hyperlink ref="C123" r:id="rId121"/>
-    <hyperlink ref="C128" r:id="rId122"/>
-    <hyperlink ref="C129" r:id="rId123"/>
-    <hyperlink ref="C130" r:id="rId124"/>
-    <hyperlink ref="C124" r:id="rId125"/>
-    <hyperlink ref="C125" r:id="rId126"/>
-    <hyperlink ref="C126" r:id="rId127"/>
-    <hyperlink ref="C127" r:id="rId128"/>
-    <hyperlink ref="C199" r:id="rId129"/>
-    <hyperlink ref="C200" r:id="rId130"/>
-    <hyperlink ref="C201" r:id="rId131"/>
-    <hyperlink ref="C131" r:id="rId132"/>
-    <hyperlink ref="C132" r:id="rId133"/>
-    <hyperlink ref="C133" r:id="rId134"/>
-    <hyperlink ref="C134" r:id="rId135"/>
-    <hyperlink ref="C135" r:id="rId136"/>
-    <hyperlink ref="C136" r:id="rId137"/>
-    <hyperlink ref="C137" r:id="rId138"/>
-    <hyperlink ref="C138" r:id="rId139"/>
-    <hyperlink ref="C139" r:id="rId140"/>
-    <hyperlink ref="C140" r:id="rId141"/>
-    <hyperlink ref="C141" r:id="rId142"/>
-    <hyperlink ref="C142" r:id="rId143"/>
-    <hyperlink ref="C143" r:id="rId144"/>
-    <hyperlink ref="C144" r:id="rId145"/>
-    <hyperlink ref="C145" r:id="rId146"/>
-    <hyperlink ref="C146" r:id="rId147"/>
-    <hyperlink ref="C147" r:id="rId148"/>
-    <hyperlink ref="C148" r:id="rId149"/>
-    <hyperlink ref="C149" r:id="rId150"/>
-    <hyperlink ref="C150" r:id="rId151"/>
-    <hyperlink ref="C154" r:id="rId152"/>
-    <hyperlink ref="C155" r:id="rId153"/>
-    <hyperlink ref="C156" r:id="rId154"/>
-    <hyperlink ref="C157" r:id="rId155"/>
-    <hyperlink ref="C158" r:id="rId156"/>
-    <hyperlink ref="C159" r:id="rId157"/>
-    <hyperlink ref="C160" r:id="rId158"/>
-    <hyperlink ref="C161" r:id="rId159"/>
-    <hyperlink ref="C162" r:id="rId160"/>
-    <hyperlink ref="C163" r:id="rId161"/>
-    <hyperlink ref="C164" r:id="rId162"/>
-    <hyperlink ref="C165" r:id="rId163"/>
-    <hyperlink ref="C166" r:id="rId164"/>
-    <hyperlink ref="C167" r:id="rId165"/>
-    <hyperlink ref="C168" r:id="rId166"/>
-    <hyperlink ref="C169" r:id="rId167"/>
-    <hyperlink ref="C170" r:id="rId168"/>
-    <hyperlink ref="C171" r:id="rId169"/>
-    <hyperlink ref="C172" r:id="rId170"/>
-    <hyperlink ref="C173" r:id="rId171"/>
-    <hyperlink ref="C174" r:id="rId172"/>
-    <hyperlink ref="C175" r:id="rId173"/>
-    <hyperlink ref="C176" r:id="rId174"/>
-    <hyperlink ref="C177" r:id="rId175"/>
-    <hyperlink ref="C203" r:id="rId176"/>
-    <hyperlink ref="C178" r:id="rId177"/>
-    <hyperlink ref="C179" r:id="rId178"/>
-    <hyperlink ref="C180" r:id="rId179"/>
-    <hyperlink ref="C181" r:id="rId180"/>
-    <hyperlink ref="C182" r:id="rId181"/>
-    <hyperlink ref="C183" r:id="rId182"/>
-    <hyperlink ref="C184" r:id="rId183"/>
-    <hyperlink ref="C185" r:id="rId184"/>
-    <hyperlink ref="C186" r:id="rId185"/>
-    <hyperlink ref="C187" r:id="rId186"/>
-    <hyperlink ref="C188" r:id="rId187"/>
-    <hyperlink ref="C189" r:id="rId188"/>
-    <hyperlink ref="C204" r:id="rId189"/>
-    <hyperlink ref="C205" r:id="rId190"/>
-    <hyperlink ref="C190" r:id="rId191"/>
-    <hyperlink ref="C191" r:id="rId192"/>
-    <hyperlink ref="C192" r:id="rId193"/>
-    <hyperlink ref="C193" r:id="rId194"/>
-    <hyperlink ref="C194" r:id="rId195"/>
-    <hyperlink ref="C195" r:id="rId196"/>
-    <hyperlink ref="C196" r:id="rId197"/>
-    <hyperlink ref="C197" r:id="rId198"/>
-    <hyperlink ref="C198" r:id="rId199"/>
-    <hyperlink ref="C206" r:id="rId200"/>
-    <hyperlink ref="C207" r:id="rId201"/>
-    <hyperlink ref="C208" r:id="rId202"/>
-    <hyperlink ref="C209" r:id="rId203"/>
-    <hyperlink ref="C210" r:id="rId204"/>
-    <hyperlink ref="C211" r:id="rId205"/>
-    <hyperlink ref="C119" r:id="rId206"/>
-    <hyperlink ref="C120" r:id="rId207"/>
-    <hyperlink ref="C121" r:id="rId208"/>
-    <hyperlink ref="C202" r:id="rId209"/>
+    <hyperlink ref="C36" r:id="rId29"/>
+    <hyperlink ref="C38" r:id="rId30"/>
+    <hyperlink ref="C39" r:id="rId31"/>
+    <hyperlink ref="C40" r:id="rId32"/>
+    <hyperlink ref="C42" r:id="rId33"/>
+    <hyperlink ref="C44" r:id="rId34"/>
+    <hyperlink ref="C43" r:id="rId35"/>
+    <hyperlink ref="C46" r:id="rId36"/>
+    <hyperlink ref="C45" r:id="rId37"/>
+    <hyperlink ref="C47" r:id="rId38"/>
+    <hyperlink ref="C48" r:id="rId39"/>
+    <hyperlink ref="C49" r:id="rId40"/>
+    <hyperlink ref="C50" r:id="rId41"/>
+    <hyperlink ref="C51" r:id="rId42"/>
+    <hyperlink ref="C52" r:id="rId43"/>
+    <hyperlink ref="C56" r:id="rId44"/>
+    <hyperlink ref="C31" r:id="rId45"/>
+    <hyperlink ref="C32" r:id="rId46"/>
+    <hyperlink ref="C33" r:id="rId47"/>
+    <hyperlink ref="C34" r:id="rId48"/>
+    <hyperlink ref="C37" r:id="rId49"/>
+    <hyperlink ref="C41" r:id="rId50"/>
+    <hyperlink ref="C53" r:id="rId51"/>
+    <hyperlink ref="C54" r:id="rId52"/>
+    <hyperlink ref="C55" r:id="rId53"/>
+    <hyperlink ref="C57" r:id="rId54"/>
+    <hyperlink ref="C58" r:id="rId55"/>
+    <hyperlink ref="C59" r:id="rId56"/>
+    <hyperlink ref="C60" r:id="rId57"/>
+    <hyperlink ref="C61" r:id="rId58"/>
+    <hyperlink ref="C62" r:id="rId59"/>
+    <hyperlink ref="C63" r:id="rId60"/>
+    <hyperlink ref="C64" r:id="rId61"/>
+    <hyperlink ref="C65" r:id="rId62"/>
+    <hyperlink ref="C66" r:id="rId63"/>
+    <hyperlink ref="C67" r:id="rId64"/>
+    <hyperlink ref="C68" r:id="rId65"/>
+    <hyperlink ref="C69" r:id="rId66"/>
+    <hyperlink ref="C70" r:id="rId67"/>
+    <hyperlink ref="C71" r:id="rId68"/>
+    <hyperlink ref="C72" r:id="rId69"/>
+    <hyperlink ref="C73" r:id="rId70"/>
+    <hyperlink ref="C74" r:id="rId71"/>
+    <hyperlink ref="C75" r:id="rId72"/>
+    <hyperlink ref="C76" r:id="rId73"/>
+    <hyperlink ref="C77" r:id="rId74"/>
+    <hyperlink ref="C78" r:id="rId75"/>
+    <hyperlink ref="C79" r:id="rId76"/>
+    <hyperlink ref="C80" r:id="rId77"/>
+    <hyperlink ref="C81" r:id="rId78"/>
+    <hyperlink ref="C82" r:id="rId79"/>
+    <hyperlink ref="C83" r:id="rId80"/>
+    <hyperlink ref="C84" r:id="rId81"/>
+    <hyperlink ref="C85" r:id="rId82"/>
+    <hyperlink ref="C86" r:id="rId83"/>
+    <hyperlink ref="C87" r:id="rId84"/>
+    <hyperlink ref="C88" r:id="rId85"/>
+    <hyperlink ref="C89" r:id="rId86"/>
+    <hyperlink ref="C90" r:id="rId87"/>
+    <hyperlink ref="C91" r:id="rId88"/>
+    <hyperlink ref="C92" r:id="rId89"/>
+    <hyperlink ref="C93" r:id="rId90"/>
+    <hyperlink ref="C94" r:id="rId91"/>
+    <hyperlink ref="C95" r:id="rId92"/>
+    <hyperlink ref="C96" r:id="rId93"/>
+    <hyperlink ref="C97" r:id="rId94"/>
+    <hyperlink ref="C98" r:id="rId95"/>
+    <hyperlink ref="C99" r:id="rId96"/>
+    <hyperlink ref="C100" r:id="rId97"/>
+    <hyperlink ref="C101" r:id="rId98"/>
+    <hyperlink ref="C102" r:id="rId99"/>
+    <hyperlink ref="C103" r:id="rId100"/>
+    <hyperlink ref="C104" r:id="rId101"/>
+    <hyperlink ref="C105" r:id="rId102"/>
+    <hyperlink ref="C106" r:id="rId103"/>
+    <hyperlink ref="C107" r:id="rId104"/>
+    <hyperlink ref="C108" r:id="rId105"/>
+    <hyperlink ref="C109" r:id="rId106"/>
+    <hyperlink ref="C110" r:id="rId107"/>
+    <hyperlink ref="C111" r:id="rId108"/>
+    <hyperlink ref="C112" r:id="rId109"/>
+    <hyperlink ref="C113" r:id="rId110"/>
+    <hyperlink ref="C114" r:id="rId111"/>
+    <hyperlink ref="C115" r:id="rId112"/>
+    <hyperlink ref="C116" r:id="rId113"/>
+    <hyperlink ref="C117" r:id="rId114"/>
+    <hyperlink ref="C118" r:id="rId115"/>
+    <hyperlink ref="C151" r:id="rId116"/>
+    <hyperlink ref="C152" r:id="rId117"/>
+    <hyperlink ref="C153" r:id="rId118"/>
+    <hyperlink ref="C122" r:id="rId119"/>
+    <hyperlink ref="C123" r:id="rId120"/>
+    <hyperlink ref="C128" r:id="rId121"/>
+    <hyperlink ref="C129" r:id="rId122"/>
+    <hyperlink ref="C130" r:id="rId123"/>
+    <hyperlink ref="C124" r:id="rId124"/>
+    <hyperlink ref="C125" r:id="rId125"/>
+    <hyperlink ref="C126" r:id="rId126"/>
+    <hyperlink ref="C127" r:id="rId127"/>
+    <hyperlink ref="C199" r:id="rId128"/>
+    <hyperlink ref="C200" r:id="rId129"/>
+    <hyperlink ref="C201" r:id="rId130"/>
+    <hyperlink ref="C131" r:id="rId131"/>
+    <hyperlink ref="C132" r:id="rId132"/>
+    <hyperlink ref="C133" r:id="rId133"/>
+    <hyperlink ref="C134" r:id="rId134"/>
+    <hyperlink ref="C135" r:id="rId135"/>
+    <hyperlink ref="C136" r:id="rId136"/>
+    <hyperlink ref="C137" r:id="rId137"/>
+    <hyperlink ref="C138" r:id="rId138"/>
+    <hyperlink ref="C139" r:id="rId139"/>
+    <hyperlink ref="C140" r:id="rId140"/>
+    <hyperlink ref="C141" r:id="rId141"/>
+    <hyperlink ref="C142" r:id="rId142"/>
+    <hyperlink ref="C143" r:id="rId143"/>
+    <hyperlink ref="C144" r:id="rId144"/>
+    <hyperlink ref="C145" r:id="rId145"/>
+    <hyperlink ref="C146" r:id="rId146"/>
+    <hyperlink ref="C147" r:id="rId147"/>
+    <hyperlink ref="C148" r:id="rId148"/>
+    <hyperlink ref="C154" r:id="rId149"/>
+    <hyperlink ref="C155" r:id="rId150"/>
+    <hyperlink ref="C156" r:id="rId151"/>
+    <hyperlink ref="C157" r:id="rId152"/>
+    <hyperlink ref="C158" r:id="rId153"/>
+    <hyperlink ref="C159" r:id="rId154"/>
+    <hyperlink ref="C160" r:id="rId155"/>
+    <hyperlink ref="C161" r:id="rId156"/>
+    <hyperlink ref="C162" r:id="rId157"/>
+    <hyperlink ref="C163" r:id="rId158"/>
+    <hyperlink ref="C164" r:id="rId159"/>
+    <hyperlink ref="C165" r:id="rId160"/>
+    <hyperlink ref="C166" r:id="rId161"/>
+    <hyperlink ref="C167" r:id="rId162"/>
+    <hyperlink ref="C168" r:id="rId163"/>
+    <hyperlink ref="C169" r:id="rId164"/>
+    <hyperlink ref="C170" r:id="rId165"/>
+    <hyperlink ref="C171" r:id="rId166"/>
+    <hyperlink ref="C172" r:id="rId167"/>
+    <hyperlink ref="C173" r:id="rId168"/>
+    <hyperlink ref="C174" r:id="rId169"/>
+    <hyperlink ref="C175" r:id="rId170"/>
+    <hyperlink ref="C176" r:id="rId171"/>
+    <hyperlink ref="C177" r:id="rId172"/>
+    <hyperlink ref="C203" r:id="rId173"/>
+    <hyperlink ref="C178" r:id="rId174"/>
+    <hyperlink ref="C179" r:id="rId175"/>
+    <hyperlink ref="C180" r:id="rId176"/>
+    <hyperlink ref="C181" r:id="rId177"/>
+    <hyperlink ref="C182" r:id="rId178"/>
+    <hyperlink ref="C183" r:id="rId179"/>
+    <hyperlink ref="C184" r:id="rId180"/>
+    <hyperlink ref="C185" r:id="rId181"/>
+    <hyperlink ref="C186" r:id="rId182"/>
+    <hyperlink ref="C187" r:id="rId183"/>
+    <hyperlink ref="C188" r:id="rId184"/>
+    <hyperlink ref="C189" r:id="rId185"/>
+    <hyperlink ref="C204" r:id="rId186"/>
+    <hyperlink ref="C205" r:id="rId187"/>
+    <hyperlink ref="C190" r:id="rId188"/>
+    <hyperlink ref="C191" r:id="rId189"/>
+    <hyperlink ref="C192" r:id="rId190"/>
+    <hyperlink ref="C193" r:id="rId191"/>
+    <hyperlink ref="C194" r:id="rId192"/>
+    <hyperlink ref="C195" r:id="rId193"/>
+    <hyperlink ref="C196" r:id="rId194"/>
+    <hyperlink ref="C197" r:id="rId195"/>
+    <hyperlink ref="C198" r:id="rId196"/>
+    <hyperlink ref="C206" r:id="rId197"/>
+    <hyperlink ref="C207" r:id="rId198"/>
+    <hyperlink ref="C208" r:id="rId199"/>
+    <hyperlink ref="C209" r:id="rId200"/>
+    <hyperlink ref="C210" r:id="rId201"/>
+    <hyperlink ref="C211" r:id="rId202"/>
+    <hyperlink ref="C119" r:id="rId203"/>
+    <hyperlink ref="C120" r:id="rId204"/>
+    <hyperlink ref="C121" r:id="rId205"/>
+    <hyperlink ref="C202" r:id="rId206"/>
+    <hyperlink ref="C149" r:id="rId207"/>
+    <hyperlink ref="C150" r:id="rId208"/>
+    <hyperlink ref="C35" r:id="rId209"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId210"/>
@@ -5109,11 +5129,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -5127,7 +5147,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5138,7 +5158,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" customHeight="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -5147,7 +5167,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -5156,7 +5176,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5167,7 +5187,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5176,7 +5196,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5185,7 +5205,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
@@ -5194,7 +5214,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
@@ -5203,7 +5223,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="36" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -5214,7 +5234,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -5223,7 +5243,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" customHeight="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
@@ -5232,7 +5252,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5243,7 +5263,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" customHeight="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -5252,7 +5272,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" customHeight="1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
@@ -5261,7 +5281,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
@@ -5270,7 +5290,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -5281,7 +5301,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -5290,7 +5310,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
@@ -5299,7 +5319,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
@@ -5308,7 +5328,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
@@ -5317,7 +5337,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
@@ -5326,7 +5346,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
@@ -5335,7 +5355,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
@@ -5344,7 +5364,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -5355,7 +5375,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
@@ -5364,7 +5384,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
@@ -5373,7 +5393,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5384,7 +5404,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="4" t="s">
         <v>64</v>
       </c>
@@ -5393,7 +5413,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -5404,7 +5424,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" customHeight="1">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
@@ -5413,7 +5433,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="4" t="s">
         <v>69</v>
       </c>
@@ -5422,7 +5442,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="4" t="s">
         <v>71</v>
       </c>
@@ -5431,7 +5451,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="31" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5442,7 +5462,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
@@ -5451,7 +5471,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="5" t="s">
         <v>76</v>
       </c>
@@ -5460,7 +5480,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -5471,7 +5491,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="4" t="s">
         <v>80</v>
       </c>
@@ -5480,7 +5500,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="4" t="s">
         <v>82</v>
       </c>
@@ -5489,7 +5509,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -5498,7 +5518,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -5509,7 +5529,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="4" t="s">
         <v>88</v>
       </c>
@@ -5518,7 +5538,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
-      <c r="A44" s="32"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="4" t="s">
         <v>90</v>
       </c>
@@ -5527,7 +5547,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -5538,7 +5558,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
@@ -5547,7 +5567,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
@@ -5556,7 +5576,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="31" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -5567,7 +5587,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="4" t="s">
         <v>100</v>
       </c>
@@ -5576,7 +5596,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
-      <c r="A50" s="32"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
@@ -5585,7 +5605,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="31" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5596,7 +5616,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="4" t="s">
         <v>105</v>
       </c>
@@ -5605,7 +5625,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
@@ -5614,7 +5634,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="4" t="s">
         <v>109</v>
       </c>
@@ -5623,7 +5643,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
-      <c r="A55" s="32"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="4" t="s">
         <v>111</v>
       </c>
@@ -5632,7 +5652,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="31" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -5643,7 +5663,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
@@ -5652,7 +5672,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" customHeight="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="4" t="s">
         <v>117</v>
       </c>
@@ -5661,7 +5681,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="31" t="s">
         <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -5672,7 +5692,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="4" t="s">
         <v>121</v>
       </c>
@@ -5681,7 +5701,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="4" t="s">
         <v>84</v>
       </c>
@@ -5690,7 +5710,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" customHeight="1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="4" t="s">
         <v>124</v>
       </c>
@@ -5699,7 +5719,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="36" customHeight="1">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -5710,7 +5730,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
-      <c r="A64" s="31"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
@@ -5719,7 +5739,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" customHeight="1">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="31" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -5730,7 +5750,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" customHeight="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="4" t="s">
         <v>5</v>
       </c>
@@ -5739,7 +5759,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="36" customHeight="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="4" t="s">
         <v>132</v>
       </c>
@@ -5759,7 +5779,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="36" customHeight="1">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="31" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -5770,7 +5790,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="36" customHeight="1">
-      <c r="A70" s="31"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="4" t="s">
         <v>138</v>
       </c>
@@ -5779,7 +5799,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="36" customHeight="1">
-      <c r="A71" s="31"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="4" t="s">
         <v>31</v>
       </c>
@@ -5788,7 +5808,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="36" customHeight="1">
-      <c r="A72" s="32"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="4" t="s">
         <v>141</v>
       </c>
@@ -5797,7 +5817,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="36" customHeight="1">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -5808,7 +5828,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="36" customHeight="1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="4" t="s">
         <v>145</v>
       </c>
@@ -5817,7 +5837,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="36" customHeight="1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="4" t="s">
         <v>84</v>
       </c>
@@ -5826,7 +5846,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="36" customHeight="1">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="31" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -5837,7 +5857,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="36" customHeight="1">
-      <c r="A77" s="31"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="4" t="s">
         <v>150</v>
       </c>
@@ -5846,7 +5866,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="36" customHeight="1">
-      <c r="A78" s="31"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="4" t="s">
         <v>21</v>
       </c>
@@ -5855,7 +5875,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="36" customHeight="1">
-      <c r="A79" s="31"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="4" t="s">
         <v>153</v>
       </c>
@@ -5864,7 +5884,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="36" customHeight="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="4" t="s">
         <v>155</v>
       </c>
@@ -5873,7 +5893,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="36" customHeight="1">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -5884,7 +5904,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="36" customHeight="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="4" t="s">
         <v>31</v>
       </c>
@@ -5893,7 +5913,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" customHeight="1">
-      <c r="A83" s="31"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="4" t="s">
         <v>160</v>
       </c>
@@ -5902,7 +5922,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" customHeight="1">
-      <c r="A84" s="32"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="4" t="s">
         <v>162</v>
       </c>
@@ -5911,7 +5931,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="36" customHeight="1">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="31" t="s">
         <v>164</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -5922,7 +5942,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="36" customHeight="1">
-      <c r="A86" s="31"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="4" t="s">
         <v>166</v>
       </c>
@@ -5931,7 +5951,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="36" customHeight="1">
-      <c r="A87" s="31"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="4" t="s">
         <v>21</v>
       </c>
@@ -5940,7 +5960,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="36" customHeight="1">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="31" t="s">
         <v>169</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -5951,7 +5971,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="36" customHeight="1">
-      <c r="A89" s="31"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="4" t="s">
         <v>21</v>
       </c>
@@ -5960,7 +5980,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="36" customHeight="1">
-      <c r="A90" s="31"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="4" t="s">
         <v>172</v>
       </c>
@@ -5969,7 +5989,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="36" customHeight="1">
-      <c r="A91" s="31"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="4" t="s">
         <v>174</v>
       </c>
@@ -5978,7 +5998,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="36" customHeight="1">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="31" t="s">
         <v>176</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -5989,7 +6009,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="36" customHeight="1">
-      <c r="A93" s="31"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="4" t="s">
         <v>21</v>
       </c>
@@ -5998,7 +6018,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="36" customHeight="1">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -6009,7 +6029,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="36" customHeight="1">
-      <c r="A95" s="31"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="4" t="s">
         <v>181</v>
       </c>
@@ -6018,7 +6038,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="36" customHeight="1">
-      <c r="A96" s="32"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="4" t="s">
         <v>183</v>
       </c>
@@ -6027,7 +6047,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="36" customHeight="1">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="31" t="s">
         <v>185</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -6038,7 +6058,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="36" customHeight="1">
-      <c r="A98" s="31"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="4" t="s">
         <v>187</v>
       </c>
@@ -6047,7 +6067,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="36" customHeight="1">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="31" t="s">
         <v>189</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -6058,7 +6078,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="36" customHeight="1">
-      <c r="A100" s="31"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="4" t="s">
         <v>191</v>
       </c>
@@ -6067,7 +6087,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="36" customHeight="1">
-      <c r="A101" s="31"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="4" t="s">
         <v>191</v>
       </c>
@@ -6076,7 +6096,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="36" customHeight="1">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="31" t="s">
         <v>194</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -6087,7 +6107,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="36" customHeight="1">
-      <c r="A103" s="31"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="4" t="s">
         <v>196</v>
       </c>
@@ -6096,7 +6116,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="36" customHeight="1">
-      <c r="A104" s="32"/>
+      <c r="A104" s="33"/>
       <c r="B104" s="4" t="s">
         <v>198</v>
       </c>
@@ -6105,7 +6125,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="36" customHeight="1">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="31" t="s">
         <v>200</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -6116,7 +6136,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="36" customHeight="1">
-      <c r="A106" s="31"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="4" t="s">
         <v>21</v>
       </c>
@@ -6125,7 +6145,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="36" customHeight="1">
-      <c r="A107" s="32"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="4" t="s">
         <v>203</v>
       </c>
@@ -6134,7 +6154,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="36" customHeight="1">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="31" t="s">
         <v>205</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -6145,7 +6165,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="36" customHeight="1">
-      <c r="A109" s="31"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="4" t="s">
         <v>96</v>
       </c>
@@ -6154,7 +6174,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="36" customHeight="1">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="31" t="s">
         <v>208</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -6165,7 +6185,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="36" customHeight="1">
-      <c r="A111" s="31"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="4" t="s">
         <v>21</v>
       </c>
@@ -6174,7 +6194,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="36" customHeight="1">
-      <c r="A112" s="31"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="4" t="s">
         <v>211</v>
       </c>
@@ -6183,7 +6203,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="36" customHeight="1">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="31" t="s">
         <v>213</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -6194,7 +6214,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="36" customHeight="1">
-      <c r="A114" s="31"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="4" t="s">
         <v>215</v>
       </c>
@@ -6203,7 +6223,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="36" customHeight="1">
-      <c r="A115" s="32"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="4" t="s">
         <v>217</v>
       </c>
@@ -6212,7 +6232,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="36" customHeight="1">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="31" t="s">
         <v>219</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -6223,7 +6243,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="36" customHeight="1">
-      <c r="A117" s="31"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="4" t="s">
         <v>221</v>
       </c>
@@ -6232,7 +6252,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="36" customHeight="1">
-      <c r="A118" s="32"/>
+      <c r="A118" s="33"/>
       <c r="B118" s="4" t="s">
         <v>221</v>
       </c>
@@ -6242,11 +6262,24 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A102:A104"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A69:A72"/>
@@ -6259,24 +6292,11 @@
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A113 A110 A102 A99 A94 A92 A81 A1:A26 A63 A65 A68:A69 A73 A76 A85 A88:A90 A97 A59 A105 A108 A116 A119:A1048576 A29 A35 A38 A42 A45 A48 A51:A56">
@@ -6420,11 +6440,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6438,7 +6458,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>225</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -6449,7 +6469,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" customHeight="1">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="12" t="s">
         <v>227</v>
       </c>
@@ -6458,7 +6478,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
@@ -6467,7 +6487,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -6478,7 +6498,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="12" t="s">
         <v>232</v>
       </c>
@@ -6487,7 +6507,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>234</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -6498,7 +6518,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="12" t="s">
         <v>236</v>
       </c>
@@ -6507,7 +6527,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="12" t="s">
         <v>238</v>
       </c>
@@ -6516,7 +6536,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="36" customHeight="1">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="12" t="s">
         <v>240</v>
       </c>
@@ -6525,7 +6545,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>242</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -6536,7 +6556,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" customHeight="1">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
@@ -6545,7 +6565,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" customHeight="1">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="12" t="s">
         <v>245</v>
       </c>
@@ -6554,7 +6574,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" customHeight="1">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>247</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -6565,7 +6585,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" customHeight="1">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="12" t="s">
         <v>249</v>
       </c>
@@ -6574,7 +6594,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="12" t="s">
         <v>251</v>
       </c>
@@ -6583,7 +6603,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -6594,7 +6614,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="12" t="s">
         <v>255</v>
       </c>
@@ -6603,7 +6623,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="12" t="s">
         <v>6</v>
       </c>
@@ -6612,7 +6632,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>258</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -6623,7 +6643,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="12" t="s">
         <v>260</v>
       </c>
@@ -6632,7 +6652,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="12" t="s">
         <v>262</v>
       </c>
@@ -6641,7 +6661,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="12" t="s">
         <v>264</v>
       </c>
@@ -6650,7 +6670,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="12" t="s">
         <v>266</v>
       </c>
@@ -6659,7 +6679,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="12" t="s">
         <v>268</v>
       </c>
@@ -6715,7 +6735,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="12" t="s">
         <v>279</v>
       </c>
@@ -6724,7 +6744,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -6735,7 +6755,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
-      <c r="A34" s="35"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="12" t="s">
         <v>21</v>
       </c>
@@ -6744,7 +6764,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="36" t="s">
         <v>284</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -6755,7 +6775,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
-      <c r="A36" s="35"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="12" t="s">
         <v>6</v>
       </c>
@@ -6764,7 +6784,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
-      <c r="A37" s="35"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="12" t="s">
         <v>287</v>
       </c>
@@ -6773,7 +6793,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="36" t="s">
         <v>289</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -6784,7 +6804,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
-      <c r="A39" s="35"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="12" t="s">
         <v>35</v>
       </c>
@@ -6793,7 +6813,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
-      <c r="A40" s="35"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="12" t="s">
         <v>21</v>
       </c>
@@ -6802,7 +6822,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
-      <c r="A41" s="35"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="12" t="s">
         <v>293</v>
       </c>
@@ -6811,7 +6831,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -6822,7 +6842,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
-      <c r="A43" s="35"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="12" t="s">
         <v>21</v>
       </c>
@@ -6831,7 +6851,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -6842,7 +6862,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
-      <c r="A45" s="35"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="12" t="s">
         <v>35</v>
       </c>
@@ -6851,7 +6871,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
-      <c r="A46" s="35"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="12" t="s">
         <v>301</v>
       </c>
@@ -6860,7 +6880,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="36" t="s">
         <v>303</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -6871,7 +6891,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
-      <c r="A48" s="35"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="12" t="s">
         <v>31</v>
       </c>
@@ -6880,7 +6900,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="36" t="s">
         <v>306</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -6891,7 +6911,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
-      <c r="A50" s="35"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="12" t="s">
         <v>35</v>
       </c>
@@ -6900,7 +6920,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
-      <c r="A51" s="35"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="12" t="s">
         <v>21</v>
       </c>
@@ -6909,7 +6929,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="36" t="s">
         <v>310</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -6920,7 +6940,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
-      <c r="A53" s="35"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="12" t="s">
         <v>312</v>
       </c>
@@ -6929,7 +6949,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
-      <c r="A54" s="35"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="12" t="s">
         <v>35</v>
       </c>
@@ -6938,7 +6958,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="36" t="s">
         <v>315</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -6949,7 +6969,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
-      <c r="A56" s="35"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="12" t="s">
         <v>21</v>
       </c>
@@ -6958,7 +6978,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
-      <c r="A57" s="35"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="12" t="s">
         <v>318</v>
       </c>
@@ -6967,7 +6987,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" customHeight="1">
-      <c r="A58" s="35"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="12" t="s">
         <v>320</v>
       </c>
@@ -6976,7 +6996,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="36" t="s">
         <v>322</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -6987,7 +7007,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
-      <c r="A60" s="35"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="12" t="s">
         <v>6</v>
       </c>
@@ -6996,7 +7016,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
-      <c r="A61" s="35"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="12" t="s">
         <v>325</v>
       </c>
@@ -7005,7 +7025,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" customHeight="1">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="36" t="s">
         <v>327</v>
       </c>
       <c r="B62" s="12" t="s">
@@ -7016,7 +7036,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="36" customHeight="1">
-      <c r="A63" s="35"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="12" t="s">
         <v>35</v>
       </c>
@@ -7025,7 +7045,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
-      <c r="A64" s="35"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="12" t="s">
         <v>21</v>
       </c>
@@ -7034,7 +7054,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" customHeight="1">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="36" t="s">
         <v>331</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -7045,7 +7065,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" customHeight="1">
-      <c r="A66" s="35"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="12" t="s">
         <v>333</v>
       </c>
@@ -7054,7 +7074,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="36" customHeight="1">
-      <c r="A67" s="35"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="12" t="s">
         <v>31</v>
       </c>
@@ -7063,7 +7083,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="36" customHeight="1">
-      <c r="A68" s="35"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="12" t="s">
         <v>260</v>
       </c>
@@ -7072,7 +7092,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="36" customHeight="1">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="36" t="s">
         <v>337</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -7083,7 +7103,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="36" customHeight="1">
-      <c r="A70" s="35"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="12" t="s">
         <v>21</v>
       </c>
@@ -7092,7 +7112,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="36" customHeight="1">
-      <c r="A71" s="35"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="12" t="s">
         <v>340</v>
       </c>
@@ -7208,7 +7228,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" customHeight="1">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="39" t="s">
         <v>360</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -7219,7 +7239,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" customHeight="1">
-      <c r="A84" s="40"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="12" t="s">
         <v>362</v>
       </c>
@@ -7228,7 +7248,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="36" customHeight="1">
-      <c r="A85" s="40"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="12" t="s">
         <v>21</v>
       </c>
@@ -7237,7 +7257,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="36" customHeight="1">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="36" t="s">
         <v>365</v>
       </c>
       <c r="B86" s="12" t="s">
@@ -7248,7 +7268,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="36" customHeight="1">
-      <c r="A87" s="35"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="12" t="s">
         <v>21</v>
       </c>
@@ -7257,7 +7277,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="36" customHeight="1">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="36" t="s">
         <v>368</v>
       </c>
       <c r="B88" s="12" t="s">
@@ -7268,7 +7288,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="36" customHeight="1">
-      <c r="A89" s="35"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="12" t="s">
         <v>21</v>
       </c>
@@ -7277,7 +7297,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="36" customHeight="1">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="36" t="s">
         <v>371</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -7288,7 +7308,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="36" customHeight="1">
-      <c r="A91" s="35"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="12" t="s">
         <v>373</v>
       </c>
@@ -7297,7 +7317,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="36" customHeight="1">
-      <c r="A92" s="35"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="12" t="s">
         <v>21</v>
       </c>
@@ -7306,7 +7326,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="36" customHeight="1">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="36" t="s">
         <v>376</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -7317,7 +7337,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="36" customHeight="1">
-      <c r="A94" s="35"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="12" t="s">
         <v>6</v>
       </c>
@@ -7326,7 +7346,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="36" customHeight="1">
-      <c r="A95" s="35"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="12" t="s">
         <v>379</v>
       </c>
@@ -7336,13 +7356,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A46"/>
@@ -7355,18 +7380,13 @@
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
